--- a/assets/reports/09-20-2023to09-26-2023_currentActiveStudents.xlsx
+++ b/assets/reports/09-20-2023to09-26-2023_currentActiveStudents.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156" count="156">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207" count="207">
   <x:si>
     <x:t>_id</x:t>
   </x:si>
   <x:si>
-    <x:t>RegistrationNo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdmissionDate</x:t>
+    <x:t>AdmissionNo</x:t>
   </x:si>
   <x:si>
     <x:t>Session</x:t>
@@ -61,307 +58,583 @@
     <x:t>FullAddress</x:t>
   </x:si>
   <x:si>
-    <x:t>BankName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Branch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AccountNo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IFSC</x:t>
-  </x:si>
-  <x:si>
     <x:t>Medium</x:t>
   </x:si>
   <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Religion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isHandicapped</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FathersEducation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MothersEducation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FathersOccupation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MothersOccupation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FathersWorkPlace</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MothersWorkPlace</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FathersAnnualIncome</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MothersAnnualIncome</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LastSchoolName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LastPassingClass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LastClassPassingYear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LastClassGrade</x:t>
-  </x:si>
-  <x:si>
     <x:t>SchoolCode</x:t>
   </x:si>
   <x:si>
     <x:t>isThisCurrentRecord</x:t>
   </x:si>
   <x:si>
-    <x:t>createdAt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>updatedAt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>__v</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AdmissionNo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65105f8d058b79089d7c76a4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-09-24T16:04:59.781Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Damon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pandora Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aimee Mckee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>643</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exercitation lorem v</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Commodi dicta ut in </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1993-10-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Labore occaecat debi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deleniti quisquam do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Myles Stone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Officia molestiae pa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cumque aut eaque atq</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Laboriosam pariatur</x:t>
+    <x:t>6521391927f1eb6d5622b77d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abhay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yadav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ramkrashn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varsha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-12-2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno.04shahpur</x:t>
   </x:si>
   <x:si>
     <x:t>Hindi</x:t>
   </x:si>
   <x:si>
-    <x:t>Gen/ Creame layer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tempor non sapiente </x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voluptatum porro tot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Commodo nisi eos sed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ea aliqua Vel cumqu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>At natus ipsum aut d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Qui vel aut laboris </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Incididunt cumque si</x:t>
-  </x:si>
-  <x:si>
-    <x:t>549</x:t>
-  </x:si>
-  <x:si>
-    <x:t>713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rhea Lott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Non velit quae sequi</x:t>
-  </x:si>
-  <x:si>
     <x:t>SVVN</x:t>
   </x:si>
   <x:si>
-    <x:t>Sun Sep 24 2023 21:40:33 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Sep 24 2023 21:40:53 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65105f8f058b79089d7c76b8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ginger</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tasha Sargent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kylan Carr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voluptates dolorum q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Qui non ut sit et la</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1970-06-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sed vitae nobis labo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quia inventore est e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amos Salinas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magni mollitia conse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Architecto consequat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delectus labore imp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>English</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Illum quam molestia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quod laboriosam dol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dolorem exercitation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quia et incidunt cu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ullam est in ipsam a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dolor similique aut </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sunt eum et vel sint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>744</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Imogene Armstrong</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Consequatur modi mol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Sep 24 2023 21:40:43 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Sep 24 2023 21:40:55 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15253</x:t>
+    <x:t>6521391927f1eb6d5622b77e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>arhaan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>salman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aafreen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-03-2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno.12 shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b77f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prabhat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nagvanshi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dibbu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ramshakhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kg-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-06-2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno.13shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1851</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aaysa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samshad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pinki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-12-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno.11shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sivam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sahu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hiralal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sangeeta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kg-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-06-2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno 02shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b782</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1853</x:t>
+  </x:si>
+  <x:si>
+    <x:t>naitik</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lodhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>arvind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>neeta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-07-2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manjhuwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b783</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1854</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pooja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-08-2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno.02shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sadhna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mahendra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sunita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-11-2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tada shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b785</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shivansh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sarman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rekha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-09-2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b786</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1857</x:t>
+  </x:si>
+  <x:si>
+    <x:t>udaydas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chotu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-05-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1858</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roji</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-05-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno.12shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b788</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nitin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>janki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-12-2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mites</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thakur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mahesh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-07-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b78a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jaydeep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jitendra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sapna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-11-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno. 10 shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b78b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khusbu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ghoshi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>monu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-07-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sasa shahpur </x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b78c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bhabya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kavita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-02-2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno. 06 shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b78d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>neelam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>virendra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-10-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b78e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>athrv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nema</x:t>
+  </x:si>
+  <x:si>
+    <x:t>raju</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rajni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-02-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno. 11 shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b78f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kaniska</x:t>
+  </x:si>
+  <x:si>
+    <x:t>golandaj </x:t>
+  </x:si>
+  <x:si>
+    <x:t>devendra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pappi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-08-2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>golandas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno. 12 shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yhtasnuma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bhna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yunoos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yasmeen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-07-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1868</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vishakha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mukesh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-09-2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>saur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rajendra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>koshalya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-10-2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wardno. 15 shahpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ritik</x:t>
+  </x:si>
+  <x:si>
+    <x:t>raja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>geeta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-01-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chainsingh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>usa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-07-2010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>raj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-07-2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b796</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1873</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aradhana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lokpal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-05-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6521391927f1eb6d5622b77c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdul hasan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sharukh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>najnee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>721415057309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>318224515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7354921666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magron</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -724,7 +997,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:42">
+    <x:row r="1" spans="1:17">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -776,336 +1049,1412 @@
       <x:c r="Q1" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="R1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:17">
+      <x:c r="A2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="S1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="T1" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="U1" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="V1" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="W1" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="X1" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="Y1" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Z1" s="0" t="s">
+      <x:c r="I2" s="0" t="n">
+        <x:v>442348015171</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="n">
+        <x:v>315177302</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="n">
+        <x:v>7566542667</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="AA1" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="AB1" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="AC1" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="AD1" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:17">
+      <x:c r="A3" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="AE1" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AF1" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="AG1" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="AH1" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="AI1" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="AJ1" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="n">
+        <x:v>514220872047</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="n">
+        <x:v>316184100</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="n">
+        <x:v>7509770045</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="AK1" s="0" t="s">
+      <x:c r="M3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AL1" s="0" t="s">
+      <x:c r="O3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:17">
+      <x:c r="A4" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AM1" s="0" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="AN1" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="AO1" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="AP1" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:42">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="I4" s="0" t="n">
+        <x:v>8799163990407</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="n">
+        <x:v>319633544</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="n">
+        <x:v>8982220130</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="M4" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="O4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:17">
+      <x:c r="A5" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="n">
+        <x:v>258016107416</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="n">
+        <x:v>310616818</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="n">
+        <x:v>9713751507</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="M5" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="O5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:17">
+      <x:c r="A6" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="Q2" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="R2" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="S2" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="T2" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="U2" s="0" t="s">
+      <x:c r="I6" s="0" t="n">
+        <x:v>498132164873</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="n">
+        <x:v>313023835</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="n">
+        <x:v>6266163975</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="V2" s="0" t="s">
+      <x:c r="M6" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="W2" s="0" t="s">
+      <x:c r="O6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q6" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:17">
+      <x:c r="A7" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="X2" s="0" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="Y2" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="Z2" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="AA2" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="AB2" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="AC2" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="n">
+        <x:v>206153698381</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="n">
+        <x:v>318941619</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="n">
+        <x:v>9343321617</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="AD2" s="0" t="s">
+      <x:c r="M7" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="AE2" s="0" t="s">
+      <x:c r="O7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:17">
+      <x:c r="A8" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="AF2" s="0" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="AG2" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="AH2" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="n">
+        <x:v>670701610801</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="n">
+        <x:v>313023834</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="n">
+        <x:v>6266163975</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="AI2" s="0" t="s">
+      <x:c r="M8" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="AJ2" s="0" t="s">
+      <x:c r="O8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q8" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:17">
+      <x:c r="A9" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="AK2" s="0" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="AL2" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM2" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AN2" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="AO2" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AP2" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:42">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="G9" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="H9" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="n">
+        <x:v>301114798867</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="n">
+        <x:v>305998853</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="n">
+        <x:v>7582911037</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="M9" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="O9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q9" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:17">
+      <x:c r="A10" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="B10" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="n">
+        <x:v>713891221330</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="n">
+        <x:v>310906596</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="n">
+        <x:v>7489063356</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="O10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q10" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:17">
+      <x:c r="A11" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="n">
+        <x:v>535746624694</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="n">
+        <x:v>310044049</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P11" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q11" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:17">
+      <x:c r="A12" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="n">
+        <x:v>807788036161</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="n">
+        <x:v>316184099</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="n">
+        <x:v>7509770045</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="O12" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P12" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q12" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:17">
+      <x:c r="A13" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="n">
+        <x:v>999681385291</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="n">
+        <x:v>316631016</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="n">
+        <x:v>9302054405</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P13" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q13" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:17">
+      <x:c r="A14" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="n">
+        <x:v>397759608326</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="n">
+        <x:v>310828235</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="n">
+        <x:v>9827055635</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q14" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:17">
+      <x:c r="A15" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="n">
+        <x:v>795094998413</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="n">
+        <x:v>313586330</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="n">
+        <x:v>9753517891</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q15" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:17">
+      <x:c r="A16" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="n">
+        <x:v>635338977166</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="n">
+        <x:v>310884862</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="n">
+        <x:v>9685440845</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:17">
+      <x:c r="A17" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="n">
+        <x:v>289592185679</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="n">
+        <x:v>310873697</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="O17" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q17" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:17">
+      <x:c r="A18" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="n">
+        <x:v>345041368188</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="n">
+        <x:v>313556099</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="n">
+        <x:v>9630138711</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="N18" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="O18" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P18" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q18" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:17">
+      <x:c r="A19" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="n">
+        <x:v>703117323131</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="n">
+        <x:v>310733376</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="n">
+        <x:v>9981779514</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O19" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P19" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q19" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:17">
+      <x:c r="A20" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="n">
+        <x:v>455090382746</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="n">
+        <x:v>315769793</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="n">
+        <x:v>9993967638</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="O20" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q20" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:17">
+      <x:c r="A21" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="n">
+        <x:v>627462278806</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="n">
+        <x:v>310861386</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="n">
+        <x:v>8982890478</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="O21" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P21" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q21" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:17">
+      <x:c r="A22" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="n">
+        <x:v>568244458881</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="n">
+        <x:v>316631421</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="N22" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O22" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P22" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q22" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:17">
+      <x:c r="A23" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="n">
+        <x:v>786437441050</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="n">
+        <x:v>311001743</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="N23" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="O23" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P23" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q23" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:17">
+      <x:c r="A24" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="n">
+        <x:v>869886809677</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="n">
+        <x:v>316474094</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="N24" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="O24" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P24" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q24" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:17">
+      <x:c r="A25" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="n">
+        <x:v>263991144626</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="n">
+        <x:v>301888228</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="N25" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P25" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q25" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:17">
+      <x:c r="A26" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="n">
+        <x:v>695592912612</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="n">
+        <x:v>307062163</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="n">
+        <x:v>6266575028</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="O26" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P26" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q26" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:17">
+      <x:c r="A27" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="n">
+        <x:v>310659858</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="n">
+        <x:v>9713383929</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="O27" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P27" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q27" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:17">
+      <x:c r="A28" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="O3" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="P3" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="Q3" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="R3" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="S3" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="T3" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="U3" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="V3" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="W3" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="X3" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="Y3" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z3" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="AA3" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="AB3" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="AC3" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="AD3" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="AE3" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="AF3" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="AG3" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="AH3" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AI3" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="AJ3" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="AK3" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="AL3" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM3" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="AN3" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="AO3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AP3" s="0" t="s">
-        <x:v>115</x:v>
+      <x:c r="F28" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="K28" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N28" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="O28" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P28" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Q28" s="0" t="b">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/assets/reports/09-20-2023to09-26-2023_currentActiveStudents.xlsx
+++ b/assets/reports/09-20-2023to09-26-2023_currentActiveStudents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114" count="114">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31" count="31">
   <x:si>
     <x:t>_id</x:t>
   </x:si>
@@ -356,6 +356,189 @@
   </x:si>
   <x:si>
     <x:t>Mon Oct 30 2023 15:42:05 GMT+0530 (India Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>653f974b98f59e4d96861cfd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Graiden</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nathan Merritt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Connor Daniels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perspiciatis volupt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+1 (514) 318-5992</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-06-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qui aspernatur facer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Excepturi voluptatib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marvin Hood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Consequatur exercita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Et qui rem consequat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Officia est itaque d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OBC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deserunt possimus a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nesciunt et illo do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Labore eligendi volu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nihil aut rerum ut a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gemma Chang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minim dicta consequa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Oct 30 2023 17:15:04 GMT+0530 (India Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Oct 30 2023 17:15:15 GMT+0530 (India Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6540b49df6fccf06cf26f0d5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richards</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Charlotte Galloway</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wyatt George</x:t>
+  </x:si>
+  <x:si>
+    <x:t>890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eveniet rerum neque</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+1 (852) 193-6004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1970-12-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nostrud error quo po</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sint soluta quasi eo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reed Benjamin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Incidunt Nam libero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Est odit enim esse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eiusmod laborum aliq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sikh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Incidunt enim modi </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quasi in cupidatat d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unheiginic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MHT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Libero duis consequu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Incidunt quia nihil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>786</x:t>
+  </x:si>
+  <x:si>
+    <x:t>578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theodore Riddle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recusandae Error es</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Oct 31 2023 13:32:28 GMT+0530 (India Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Oct 31 2023 13:32:37 GMT+0530 (India Standard Time)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1093,6 +1276,256 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:41">
+      <x:c r="A4" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="T4" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="U4" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="V4" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="W4" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="X4" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="Y4" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="Z4" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="AA4" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="AB4" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AC4" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="AD4" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="AE4" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="AF4" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="AG4" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="AH4" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AI4" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="AJ4" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="AK4" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="AL4" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM4" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="AN4" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="AO4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:41">
+      <x:c r="A5" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="S5" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="T5" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="U5" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="V5" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="W5" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="X5" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="Y5" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="Z5" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AA5" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="AB5" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="AC5" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="AD5" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="AE5" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="AF5" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="AG5" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="AH5" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI5" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="AJ5" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="AK5" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="AL5" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM5" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="AN5" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="AO5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
